--- a/Basic Formulas Excel.xlsx
+++ b/Basic Formulas Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JawanPak\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Jawan Pakistan Practise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A26CE35-F409-42CE-AF6E-59EBA025D2F8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EB33BA-BB6C-46F8-B8E0-BA03C45DF1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="4" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{47981922-77C5-4EC3-A76E-98D6CE997DC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Max-Min" sheetId="9" r:id="rId1"/>
@@ -388,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -406,9 +406,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -737,13 +734,13 @@
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -778,7 +775,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -806,16 +803,16 @@
       <c r="I2" s="1">
         <v>42253</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="3">
         <f>MAX(G2:G10)</f>
         <v>65000</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="3">
         <f>MIN(G2:G10)</f>
         <v>36000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -849,7 +846,7 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -878,7 +875,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -907,7 +904,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -936,7 +933,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -965,7 +962,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -994,7 +991,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1023,7 +1020,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1068,13 +1065,13 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1112,7 +1109,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1153,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1182,7 +1179,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1211,7 +1208,7 @@
         <v>42986</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1240,7 +1237,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1269,7 +1266,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1298,7 +1295,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1327,7 +1324,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1356,7 +1353,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1401,20 +1398,20 @@
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" style="3"/>
-    <col min="6" max="6" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="3"/>
-    <col min="8" max="8" width="14.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.7109375" style="3"/>
+    <col min="1" max="1" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7265625" style="3"/>
+    <col min="6" max="6" width="15.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="3"/>
+    <col min="8" max="8" width="14.453125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -1446,7 +1443,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -1479,7 +1476,7 @@
         <v>5056</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -1512,7 +1509,7 @@
         <v>5851</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -1545,7 +1542,7 @@
         <v>6275</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -1578,7 +1575,7 @@
         <v>5811</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -1611,7 +1608,7 @@
         <v>5960</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -1644,7 +1641,7 @@
         <v>4511</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -1677,7 +1674,7 @@
         <v>3595</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -1710,7 +1707,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
@@ -1743,7 +1740,7 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="18" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:11" x14ac:dyDescent="0.35">
       <c r="H18" s="4">
         <v>45591</v>
       </c>
@@ -1771,16 +1768,16 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.81640625" customWidth="1"/>
+    <col min="12" max="12" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1818,7 +1815,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1859,7 +1856,7 @@
         <v>Sales Person</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1900,7 +1897,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1941,7 +1938,7 @@
         <v>Sales Person</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1982,7 +1979,7 @@
         <v>Accountant Person</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2023,7 +2020,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2064,7 +2061,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2105,7 +2102,7 @@
         <v>Other</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2146,7 +2143,7 @@
         <v>Sales Person</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2203,12 +2200,12 @@
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2240,7 +2237,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -2277,7 +2274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -2314,7 +2311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -2351,7 +2348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -2388,7 +2385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -2425,7 +2422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -2462,7 +2459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -2499,7 +2496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -2536,7 +2533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -2589,16 +2586,16 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="14.5703125" style="3"/>
+    <col min="1" max="3" width="14.54296875" style="3"/>
     <col min="4" max="4" width="8" style="3" customWidth="1"/>
-    <col min="5" max="9" width="14.5703125" style="3"/>
-    <col min="10" max="10" width="44.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="14.5703125" style="3"/>
+    <col min="5" max="9" width="14.54296875" style="3"/>
+    <col min="10" max="10" width="44.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.54296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -2639,7 +2636,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -2679,7 +2676,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -2719,7 +2716,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -2759,7 +2756,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -2799,7 +2796,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -2839,7 +2836,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -2879,7 +2876,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -2919,7 +2916,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -2959,7 +2956,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
@@ -3015,17 +3012,17 @@
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5703125" style="3"/>
-    <col min="4" max="4" width="7.5703125" style="3" customWidth="1"/>
-    <col min="5" max="9" width="13.5703125" style="3"/>
-    <col min="10" max="10" width="21.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="13.5703125" style="3"/>
+    <col min="1" max="1" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.54296875" style="3"/>
+    <col min="4" max="4" width="7.54296875" style="3" customWidth="1"/>
+    <col min="5" max="9" width="13.54296875" style="3"/>
+    <col min="10" max="10" width="21.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="13.54296875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -3057,7 +3054,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -3085,7 +3082,7 @@
       <c r="I2" s="4">
         <v>42253</v>
       </c>
-      <c r="J2" s="10" t="str">
+      <c r="J2" s="9" t="str">
         <f>TEXT(I2,"dd/mm/yyyy")</f>
         <v>06/09/2015</v>
       </c>
@@ -3095,7 +3092,7 @@
         <v>09</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -3123,13 +3120,13 @@
       <c r="I3" s="4">
         <v>42287</v>
       </c>
-      <c r="J3" s="9" t="str">
+      <c r="J3" s="3" t="str">
         <f t="shared" ref="J3:J10" si="0">TEXT(I3,"dd/mm/yyyy")</f>
         <v>10/10/2015</v>
       </c>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -3157,13 +3154,13 @@
       <c r="I4" s="4">
         <v>42986</v>
       </c>
-      <c r="J4" s="9" t="str">
+      <c r="J4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>08/09/2017</v>
       </c>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -3191,7 +3188,7 @@
       <c r="I5" s="4">
         <v>42341</v>
       </c>
-      <c r="J5" s="9" t="str">
+      <c r="J5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>03/12/2015</v>
       </c>
@@ -3199,7 +3196,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -3227,7 +3224,7 @@
       <c r="I6" s="4">
         <v>42977</v>
       </c>
-      <c r="J6" s="9" t="str">
+      <c r="J6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>30/08/2017</v>
       </c>
@@ -3235,7 +3232,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -3263,7 +3260,7 @@
       <c r="I7" s="4">
         <v>41528</v>
       </c>
-      <c r="J7" s="9" t="str">
+      <c r="J7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>11/09/2013</v>
       </c>
@@ -3271,7 +3268,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -3299,7 +3296,7 @@
       <c r="I8" s="4">
         <v>41551</v>
       </c>
-      <c r="J8" s="9" t="str">
+      <c r="J8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>04/10/2013</v>
       </c>
@@ -3307,7 +3304,7 @@
       <c r="L8" s="8"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -3335,7 +3332,7 @@
       <c r="I9" s="4">
         <v>42116</v>
       </c>
-      <c r="J9" s="9" t="str">
+      <c r="J9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>22/04/2015</v>
       </c>
@@ -3343,7 +3340,7 @@
       <c r="L9" s="8"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
@@ -3371,7 +3368,7 @@
       <c r="I10" s="4">
         <v>40800</v>
       </c>
-      <c r="J10" s="9" t="str">
+      <c r="J10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>14/09/2011</v>
       </c>
@@ -3379,25 +3376,25 @@
       <c r="L10" s="8"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="L11" s="8"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H12" s="4"/>
       <c r="L12" s="8"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H13" s="5"/>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <f>DATE(2024,10,26)</f>
         <v>45591</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="L14" s="8"/>
       <c r="M14" s="7"/>
     </row>
@@ -3417,16 +3414,16 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" customWidth="1"/>
+    <col min="6" max="6" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="40.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3461,7 +3458,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -3494,7 +3491,7 @@
         <v>Halpert</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -3527,7 +3524,7 @@
         <v>Beasley</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -3560,7 +3557,7 @@
         <v>Schrute</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -3593,7 +3590,7 @@
         <v>Martin</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -3626,7 +3623,7 @@
         <v>Flenderson</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -3659,7 +3656,7 @@
         <v>Scott</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -3692,7 +3689,7 @@
         <v>Palmer</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -3725,7 +3722,7 @@
         <v>Hudson</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -3774,17 +3771,17 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" customWidth="1"/>
+    <col min="3" max="5" width="10.54296875" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" customWidth="1"/>
     <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3816,7 +3813,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -3849,7 +3846,7 @@
         <v>Jim Halpert</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -3882,7 +3879,7 @@
         <v>Pam Beasley</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -3915,7 +3912,7 @@
         <v>Dwight Schrute</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -3948,7 +3945,7 @@
         <v>Angela Martin</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -3981,7 +3978,7 @@
         <v>Toby Flenderson</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -4014,7 +4011,7 @@
         <v>Michael Scott</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -4047,7 +4044,7 @@
         <v>Meredith Palmer</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -4080,7 +4077,7 @@
         <v>Stanley Hudson</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -4113,13 +4110,13 @@
         <v>Kevin Malone</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H11" t="str">
         <f t="shared" ref="H11:H12" si="1">CONCATENATE(B11," ",C11)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="H12" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
@@ -4141,15 +4138,15 @@
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -4190,7 +4187,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -4235,7 +4232,7 @@
         <v>9/6-2015</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -4280,7 +4277,7 @@
         <v>10/10-2015</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -4325,7 +4322,7 @@
         <v>9/8-2017</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -4370,7 +4367,7 @@
         <v>12/3-2015</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -4415,7 +4412,7 @@
         <v>8/30-2017</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -4460,7 +4457,7 @@
         <v>9/11-2013</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -4505,7 +4502,7 @@
         <v>9/11-2013</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -4550,7 +4547,7 @@
         <v>4/22-2015</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -4595,31 +4592,31 @@
         <v>4/22-2015</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:9" x14ac:dyDescent="0.35">
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:9" x14ac:dyDescent="0.35">
       <c r="E18" t="str">
         <f>SUBSTITUTE(A2,"100","ABCD",1)</f>
         <v>ABCD1</v>
@@ -4627,11 +4624,11 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:9" x14ac:dyDescent="0.35">
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:9" x14ac:dyDescent="0.35">
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
@@ -4652,12 +4649,12 @@
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="16384" width="13" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -4695,7 +4692,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -4736,7 +4733,7 @@
         <v>205000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -4765,7 +4762,7 @@
         <v>42287</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -4798,7 +4795,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -4827,7 +4824,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -4856,7 +4853,7 @@
         <v>42977</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -4885,7 +4882,7 @@
         <v>41528</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -4914,7 +4911,7 @@
         <v>41551</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -4943,7 +4940,7 @@
         <v>42116</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
